--- a/data/fisheryexposure.xlsx
+++ b/data/fisheryexposure.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lknelson\Documents\GitHub\climate_perceptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C22357-BC7B-4D09-930B-F293960C5FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B600FB-5F36-4B90-868E-1E65277D49EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fisheryexposure" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="188">
   <si>
     <t>fishery_avg_exposure</t>
   </si>
@@ -542,12 +543,58 @@
   </si>
   <si>
     <t>north pacific giant octopus</t>
+  </si>
+  <si>
+    <t>Exposure when calculated as the 
+average of everyone's responses for that species</t>
+  </si>
+  <si>
+    <t>Exposure as calculated as the average of those participating in that fishery</t>
+  </si>
+  <si>
+    <t>"CPS"</t>
+  </si>
+  <si>
+    <t>"dungeness crab"</t>
+  </si>
+  <si>
+    <t>"groundfish"</t>
+  </si>
+  <si>
+    <t>"hake"</t>
+  </si>
+  <si>
+    <t>"HMS"</t>
+  </si>
+  <si>
+    <t>"salmon"</t>
+  </si>
+  <si>
+    <t>"scallops"</t>
+  </si>
+  <si>
+    <t>"sea urchin"</t>
+  </si>
+  <si>
+    <t>"shrimp"</t>
+  </si>
+  <si>
+    <t>"squid"</t>
+  </si>
+  <si>
+    <t>average exposure</t>
+  </si>
+  <si>
+    <t>fishery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,8 +1072,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2294,11 +2346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,4 +5545,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBBA86E-78B1-4A95-9C6F-209BF0ADA8EE}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.60431654676258995</v>
+      </c>
+      <c r="D4">
+        <v>0.48479981868553801</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.39278711484593798</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.56557377049180302</v>
+      </c>
+      <c r="D5">
+        <v>0.43719659550928702</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.45061728395061701</v>
+      </c>
+      <c r="D6">
+        <v>0.41796177967861697</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.36255723443223398</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.391891891891892</v>
+      </c>
+      <c r="D7">
+        <v>0.44550601539833101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.35779548734094202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.31578947368421101</v>
+      </c>
+      <c r="D8">
+        <v>0.50605439458767498</v>
+      </c>
+      <c r="F8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.29316239316239301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.31481481481481499</v>
+      </c>
+      <c r="D9">
+        <v>0.42764445878558699</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.263851686507937</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.30672268907563</v>
+      </c>
+      <c r="D10">
+        <v>0.39584739066357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.247142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.30487804878048802</v>
+      </c>
+      <c r="D11">
+        <v>0.50394617632628202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.20021645021644999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.23684210526315799</v>
+      </c>
+      <c r="D12">
+        <v>0.36529653494326803</v>
+      </c>
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.19642857142857101</v>
+      </c>
+      <c r="D13">
+        <v>0.53977160304951799</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>9.31372549019608E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.48784012543864003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:G13">
+    <sortCondition descending="1" ref="G4:G13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>